--- a/biology/Zoologie/Afrânio_Pompílio_Gastos_do_Amaral/Afrânio_Pompílio_Gastos_do_Amaral.xlsx
+++ b/biology/Zoologie/Afrânio_Pompílio_Gastos_do_Amaral/Afrânio_Pompílio_Gastos_do_Amaral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Afr%C3%A2nio_Pomp%C3%ADlio_Gastos_do_Amaral</t>
+          <t>Afrânio_Pompílio_Gastos_do_Amaral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrânio Pompílio Gastos do Amaral est un herpétologiste brésilien, né le 1er décembre 1894 à Belém et mort le 29 novembre 1982 à São Paulo.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Afr%C3%A2nio_Pomp%C3%ADlio_Gastos_do_Amaral</t>
+          <t>Afrânio_Pompílio_Gastos_do_Amaral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfant, il récoltait des serpents pour Emílio Augusto Goeldi (1859-1917). Il part à Salvador (Bahia) pour faire ses études et reçoit son baccalauréat en 1911. Il est diplômé de médecine à la faculté de Bahia en 1916, sa thèse portait sur les vers parasites.
 Il exerce brièvement avant de partir à São Paulo, en 1917, travailler à l’Instituto Butantan, organisme chargé de produire du sérum anti-venimeux, sous la direction de Vital Brazil (1865-1950), de João Florencio Gomes et d’Arthur Neiva (1880-1943). Après la mort prématuré de Gomes en 1919, Amaral prend en charge la section des serpents. En 1921, Amaral succède à Brazil à la direction de l’Institut.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Afr%C3%A2nio_Pomp%C3%ADlio_Gastos_do_Amaral</t>
+          <t>Afrânio_Pompílio_Gastos_do_Amaral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gymnodactylus amarali Barbour, 1925
 Caaeteboia amarali (Wettstein, 1930)
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Afr%C3%A2nio_Pomp%C3%ADlio_Gastos_do_Amaral</t>
+          <t>Afrânio_Pompílio_Gastos_do_Amaral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acratosaura mentalis (Amaral, 1933)
@@ -646,7 +664,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Afr%C3%A2nio_Pomp%C3%ADlio_Gastos_do_Amaral</t>
+          <t>Afrânio_Pompílio_Gastos_do_Amaral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -664,7 +682,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 978-0-916984-19-9)
 Amaral  est l’abréviation habituelle de Afrânio Pompílio Gastos do Amaral en zoologie.
